--- a/domain_files/ifdat/template/SELF_KEY_TEMPLATE.xlsx
+++ b/domain_files/ifdat/template/SELF_KEY_TEMPLATE.xlsx
@@ -651,7 +651,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -660,42 +660,42 @@
     <row r="3" ht="40" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr"/>
+          <t>DOMAIN</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>IFDAT</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr"/>
+          <t>CATEGORY</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>SELF_KEY</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>IFDAT</t>
-        </is>
-      </c>
+          <t>SOURCE_ORG</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SUB_CATEGORY</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>SELF_KEY</t>
-        </is>
-      </c>
+          <t>SOURCE_PERSON</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -719,12 +719,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -741,12 +741,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -763,12 +763,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -785,12 +785,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -807,12 +807,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -824,12 +824,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WE</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -841,12 +841,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>WE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -875,7 +875,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -887,7 +887,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -899,7 +899,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -911,7 +911,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -935,16 +935,21 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
       <c r="C15" t="inlineStr">
         <is>
           <t>HKD</t>
@@ -1153,7 +1158,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -1415,7 +1420,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -1506,7 +1511,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -1900,7 +1905,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -2165,7 +2170,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -2569,7 +2574,7 @@
   </mergeCells>
   <dataValidations count="5">
     <dataValidation sqref="C4:C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'SHARE_'!$A$1:$A$34</formula1>
+      <formula1>'SHARE_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H20 I4:I20 J4:J20 K4:K20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'SHARE_'!$B$1:$B$4</formula1>
@@ -2597,7 +2602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,7 +2613,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2620,7 +2625,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2632,7 +2637,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2644,7 +2649,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2656,208 +2661,215 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -2883,7 +2895,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -3442,7 +3454,7 @@
       <formula1>'DIV_'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'DIV_'!$B$1:$B$14</formula1>
+      <formula1>'DIV_'!$B$1:$B$15</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'DIV_'!$C$1:$C$41</formula1>
